--- a/amap/amap/tools/城市列表.xlsx
+++ b/amap/amap/tools/城市列表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>city</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -33,27 +33,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Foshan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>113.008927,23.10357</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>113.262464,22.898116</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Changsha</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>112.862682,28.325995</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>113.153589,28.098339</t>
+    <t>117.512428,20.267799</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>109.693577,25.465474</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guangdong</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -382,17 +370,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24.375" customWidth="1"/>
-    <col min="2" max="2" width="32.125" customWidth="1"/>
-    <col min="3" max="3" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="20.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -408,24 +395,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
